--- a/LibSelenium/SeleniumBasics/Arquivos_Download/Correios_frete.xlsx
+++ b/LibSelenium/SeleniumBasics/Arquivos_Download/Correios_frete.xlsx
@@ -8,35 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Downloads\EstudosPy\LibSelenium\SeleniumBasics\Arquivos_Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894F2777-E4CF-4C57-A3E0-ECE0DD63243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7559B2D-2AE1-4044-88AD-9062AF92146B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B3848DE-DA7A-44B0-9D43-C0B76E90988A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados_preenchidos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Origem</t>
   </si>
@@ -56,44 +41,56 @@
     <t>Peso</t>
   </si>
   <si>
+    <t>Entrega</t>
+  </si>
+  <si>
     <t>Valor</t>
   </si>
   <si>
-    <t>Entrega</t>
-  </si>
-  <si>
     <t>06449410</t>
   </si>
   <si>
     <t>06455000</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>06455924</t>
   </si>
   <si>
     <t>06465130</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>06447070</t>
   </si>
   <si>
     <t>06462485</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>Entrega domiciliar</t>
+  </si>
+  <si>
+    <t>R$ 37,65</t>
+  </si>
+  <si>
+    <t>R$ 42,95</t>
+  </si>
+  <si>
+    <t>R$ 34,75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +114,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,12 +134,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -161,9 +178,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,10 +497,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E53416-AB71-4876-90EE-BE43A290D1A0}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -497,7 +516,7 @@
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -517,14 +536,14 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -540,15 +559,15 @@
         <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -560,15 +579,15 @@
         <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>32</v>
@@ -583,20 +602,140 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G7" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G9" s="3"/>
-      <c r="J9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:B4 F2:F4" numberStoredAsText="1"/>
-  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="23" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6449410</v>
+      </c>
+      <c r="B2">
+        <v>6455000</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6455924</v>
+      </c>
+      <c r="B3">
+        <v>6465130</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6447070</v>
+      </c>
+      <c r="B4">
+        <v>6462485</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>